--- a/data_craw/quarter/income_statement_quarter/eib.xlsx
+++ b/data_craw/quarter/income_statement_quarter/eib.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,53 +573,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181003000000</v>
+        <v>33215000000</v>
       </c>
       <c r="C4" t="n">
-        <v>161492000000</v>
+        <v>115664000000</v>
       </c>
       <c r="D4" t="n">
-        <v>38812000000</v>
+        <v>42924000000</v>
       </c>
       <c r="E4" t="n">
-        <v>53255000000</v>
+        <v>65165000000</v>
       </c>
       <c r="F4" t="n">
-        <v>33215000000</v>
+        <v>22976000000</v>
       </c>
       <c r="G4" t="n">
-        <v>115664000000</v>
+        <v>139539000000</v>
       </c>
       <c r="H4" t="n">
-        <v>42924000000</v>
+        <v>128928000000</v>
       </c>
       <c r="I4" t="n">
-        <v>65165000000</v>
+        <v>275852000000</v>
       </c>
       <c r="J4" t="n">
-        <v>22976000000</v>
+        <v>27544000000</v>
       </c>
       <c r="K4" t="n">
-        <v>139539000000</v>
+        <v>98538000000</v>
       </c>
       <c r="L4" t="n">
-        <v>128928000000</v>
+        <v>91122000000</v>
       </c>
       <c r="M4" t="n">
-        <v>275852000000</v>
+        <v>81837000000</v>
       </c>
       <c r="N4" t="n">
-        <v>27544000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>98538000000</v>
-      </c>
+        <v>70880000000</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
-        <v>91122000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>81837000000</v>
-      </c>
+        <v>59345000000</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -628,53 +624,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80485000000</v>
+        <v>3920000000</v>
       </c>
       <c r="C5" t="n">
-        <v>67599000000</v>
+        <v>26939000000</v>
       </c>
       <c r="D5" t="n">
-        <v>2409000000</v>
+        <v>1287000000</v>
       </c>
       <c r="E5" t="n">
-        <v>1654000000</v>
+        <v>3299000000</v>
       </c>
       <c r="F5" t="n">
-        <v>3920000000</v>
+        <v>2057000000</v>
       </c>
       <c r="G5" t="n">
-        <v>26939000000</v>
+        <v>10129000000</v>
       </c>
       <c r="H5" t="n">
-        <v>1287000000</v>
+        <v>2688000000</v>
       </c>
       <c r="I5" t="n">
-        <v>3299000000</v>
+        <v>3801000000</v>
       </c>
       <c r="J5" t="n">
-        <v>2057000000</v>
+        <v>5346000000</v>
       </c>
       <c r="K5" t="n">
-        <v>10129000000</v>
+        <v>91061000000</v>
       </c>
       <c r="L5" t="n">
-        <v>2688000000</v>
+        <v>1218000000</v>
       </c>
       <c r="M5" t="n">
-        <v>3801000000</v>
+        <v>8028000000</v>
       </c>
       <c r="N5" t="n">
-        <v>5346000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91061000000</v>
-      </c>
+        <v>39201000000</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>1218000000</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>8028000000</v>
-      </c>
+        <v>10557000000</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -696,7 +688,9 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="n">
+        <v>133797000000</v>
+      </c>
       <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -706,53 +700,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>271862000000</v>
+        <v>430123000000</v>
       </c>
       <c r="C7" t="n">
-        <v>-16302000000</v>
+        <v>199061000000</v>
       </c>
       <c r="D7" t="n">
-        <v>366069000000</v>
+        <v>172128000000</v>
       </c>
       <c r="E7" t="n">
-        <v>74928000000</v>
+        <v>272695000000</v>
       </c>
       <c r="F7" t="n">
-        <v>430123000000</v>
+        <v>329441000000</v>
       </c>
       <c r="G7" t="n">
-        <v>199061000000</v>
+        <v>191173000000</v>
       </c>
       <c r="H7" t="n">
-        <v>172128000000</v>
+        <v>647228000000</v>
       </c>
       <c r="I7" t="n">
-        <v>272695000000</v>
+        <v>871387000000</v>
       </c>
       <c r="J7" t="n">
-        <v>329441000000</v>
+        <v>1023545000000</v>
       </c>
       <c r="K7" t="n">
-        <v>191173000000</v>
+        <v>403592000000</v>
       </c>
       <c r="L7" t="n">
-        <v>647228000000</v>
+        <v>696121000000</v>
       </c>
       <c r="M7" t="n">
-        <v>871387000000</v>
+        <v>422618000000</v>
       </c>
       <c r="N7" t="n">
-        <v>1023545000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>403592000000</v>
-      </c>
+        <v>241811000000</v>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="n">
-        <v>696121000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>422618000000</v>
-      </c>
+        <v>527251000000</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,7 +810,9 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="n">
+        <v>1577190000000</v>
+      </c>
       <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -866,7 +858,9 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>527251000000</v>
+      </c>
       <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
